--- a/src/main/resources/static/excel/errorcode.xlsx
+++ b/src/main/resources/static/excel/errorcode.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lchy0413/Documents/cheayoung.lee/01_Github/Keypoint/keypoint-backend/src/main/resources/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C80D3FC-F854-0046-8941-B87962E33045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14430" activeTab="1"/>
+    <workbookView xWindow="3460" yWindow="760" windowWidth="27920" windowHeight="18540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="수정&amp;번역 이력" sheetId="1" r:id="rId1"/>
-    <sheet name="다국어 총정리본" sheetId="2" r:id="rId2"/>
+    <sheet name="문서 이력" sheetId="3" r:id="rId1"/>
+    <sheet name="수정&amp;번역 이력" sheetId="1" r:id="rId2"/>
+    <sheet name="다국어 총정리본" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'수정&amp;번역 이력'!$B$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="307">
   <si>
     <t>001_ACCESS_DENIED</t>
   </si>
@@ -490,10 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원간의 차단 여부를 알려줘도 될까요??</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>에러문구</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -796,12 +797,264 @@
   </si>
   <si>
     <t>ログアウトされたトークン。</t>
+  </si>
+  <si>
+    <t>업데이트 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 파일 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이채영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 사람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BadgeErrorCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002_DUPLICATED_BADGE_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>003_BADGE_NOT_OWNED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001_NOT_EXISTED_BADGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 배지입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 존재하는 배지명입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유한 배지가 아닙니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>006_NOT_EXISTED_CURRENCY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>007_ALREADY_IN_WAIT_LIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>008_NOT_EXISTED_CAMPAIGN_WAIT_MEMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>009_MANY_CAMPAIGN_NOT_PREMIUM_MEMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄 회원이 아닌 회원은 하나의 캠페인 참여만 가능합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 대기명단에 존재하지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 대기명단에 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 화폐입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeErrorCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002_NOT_EXISTED_NOTICE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 공지사항 입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PremiumErrorCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001_INCORRECT_RECEIPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002_NOT_FOUND_MEMBER_PREMIUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>003_ALREADY_EXIST_MEMBER_PREMIUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 정보가 올바르지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리미엄 회원 정보가 존재하지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 프리미엄 사용 이력이 존재하여 7일간 무료체험을 할 수 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002_NOT_EXISTED_RECEIPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>003_NOT_EXISTED_PAYMENTITEM_IN_RECEIPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾을 수 없는 영수증 입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영수증 항목에 존재하지 않는 결제 항목이 요청되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대연님 확인 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>002_DUPLICATED_TRANSLATION_LANGUAGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트된 배지 추가 (53~65)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A payment item that does not exist in the receipt item has been requested.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The receipt was not found.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't experience free of charge for 7 days because you already have a premium usage history.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Premium membership information does not exist.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The payment information is invalid.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a non-existent announcement.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-premium members can only participate in one campaign.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member does not exist on the waiting list.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's already on the waiting list.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a non-existent currency.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is not a badge you have.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Badge name already exists.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is a non-existent badge.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在しないバッジです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>すでに存在するバッジ名です。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>お持ちのバッジではありません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在しない通貨です。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>すでに待機リストにあります。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会員が待機リストに存在しません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>プレミアム会員ではない会員は、1つのキャンペーン参加のみ可能です。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在しないお知らせです。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>お支払い情報が正しくありません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>プレミアム会員情報は存在しません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>すでにプレミアム使用履歴が存在し、7日間無料体験ができません。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見つからない領収書です。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>領収書明細に存在しないお支払い明細がリクエストされました。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -895,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,7 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -926,16 +1179,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1266,907 +1531,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C8113D-F43B-134C-B7EB-B2FDE085AACD}">
+  <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E53"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.84375" customWidth="1"/>
-    <col min="2" max="2" width="24.15234375" customWidth="1"/>
-    <col min="3" max="3" width="34.84375" customWidth="1"/>
-    <col min="4" max="4" width="32.84375" customWidth="1"/>
-    <col min="5" max="5" width="74.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.4609375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="35">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="35">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="35">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="35">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="35">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="35">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="70">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="35">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="35">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="35">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="35">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="35">
-      <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="35">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" ht="70">
-      <c r="A35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" ht="35">
-      <c r="A38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="35">
-      <c r="A39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="35">
-      <c r="A45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" ht="35">
-      <c r="A46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
+    <row r="3" spans="2:4">
+      <c r="B3" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="11">
+        <v>230828</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="11">
+        <v>230908</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2175,36 +1660,1551 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A39" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="31.921875" customWidth="1"/>
-    <col min="2" max="2" width="30.69140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="34.84375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="6" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="38">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="38">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="38">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="38">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="38">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="38">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="38">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="38">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="38">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="38">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="38">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="38">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" t="s">
         <v>146</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2212,13 +3212,13 @@
         <v>130</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>148</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2226,13 +3226,13 @@
         <v>131</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>149</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2240,13 +3240,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="35">
+        <v>150</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2254,13 +3254,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="35">
+        <v>151</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="38">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2268,13 +3268,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="35">
+        <v>152</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2282,13 +3282,13 @@
         <v>132</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>153</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2296,13 +3296,13 @@
         <v>133</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="35">
+        <v>154</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="38">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -2310,13 +3310,13 @@
         <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2324,13 +3324,13 @@
         <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>156</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2338,13 +3338,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>157</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2352,13 +3352,13 @@
         <v>134</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34">
+        <v>158</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2366,13 +3366,13 @@
         <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="51">
+        <v>159</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="38">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -2380,13 +3380,13 @@
         <v>29</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>160</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -2394,13 +3394,13 @@
         <v>32</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34">
+        <v>161</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -2408,13 +3408,13 @@
         <v>143</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="35">
+        <v>162</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="38">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -2422,13 +3422,13 @@
         <v>120</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>163</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -2436,13 +3436,13 @@
         <v>136</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="35">
+        <v>164</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="38">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -2450,13 +3450,13 @@
         <v>137</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>165</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -2464,13 +3464,13 @@
         <v>138</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>166</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2478,13 +3478,13 @@
         <v>45</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="35">
+        <v>167</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="38">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -2492,13 +3492,13 @@
         <v>121</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="35">
+        <v>168</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -2506,13 +3506,13 @@
         <v>121</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="35">
+        <v>168</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="38">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -2520,13 +3520,13 @@
         <v>121</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>168</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -2534,13 +3534,13 @@
         <v>53</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="35">
+        <v>169</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="38">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -2548,13 +3548,13 @@
         <v>121</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="35">
+        <v>168</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="38">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2562,13 +3562,13 @@
         <v>121</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34">
+        <v>168</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="36">
       <c r="A28" s="2" t="s">
         <v>58</v>
       </c>
@@ -2576,13 +3576,13 @@
         <v>59</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>170</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -2590,13 +3590,13 @@
         <v>63</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>171</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2604,13 +3604,13 @@
         <v>139</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>172</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -2618,13 +3618,13 @@
         <v>67</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>173</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2632,13 +3632,13 @@
         <v>69</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>174</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2646,13 +3646,13 @@
         <v>71</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>175</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2660,13 +3660,13 @@
         <v>73</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="52.5">
+        <v>176</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="57">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -2674,13 +3674,13 @@
         <v>140</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>177</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -2688,27 +3688,27 @@
         <v>78</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="34">
+        <v>178</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="35">
+        <v>179</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="38">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2716,13 +3716,13 @@
         <v>84</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="35">
+        <v>180</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="38">
       <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
@@ -2730,13 +3730,13 @@
         <v>86</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>181</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -2744,13 +3744,13 @@
         <v>88</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>182</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19">
       <c r="A41" s="2" t="s">
         <v>89</v>
       </c>
@@ -2758,13 +3758,13 @@
         <v>141</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>183</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19">
       <c r="A42" s="2" t="s">
         <v>91</v>
       </c>
@@ -2772,13 +3772,13 @@
         <v>142</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="34">
+        <v>184</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36">
       <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
@@ -2786,13 +3786,13 @@
         <v>126</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19">
       <c r="A44" s="2" t="s">
         <v>95</v>
       </c>
@@ -2800,13 +3800,13 @@
         <v>96</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="35">
+        <v>186</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="38">
       <c r="A45" s="2" t="s">
         <v>97</v>
       </c>
@@ -2814,13 +3814,13 @@
         <v>98</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="35">
+        <v>187</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="38">
       <c r="A46" s="2" t="s">
         <v>99</v>
       </c>
@@ -2828,13 +3828,13 @@
         <v>100</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19">
       <c r="A47" s="2" t="s">
         <v>101</v>
       </c>
@@ -2842,13 +3842,13 @@
         <v>102</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -2856,13 +3856,13 @@
         <v>104</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>190</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19">
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
@@ -2870,13 +3870,13 @@
         <v>106</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>191</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19">
       <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
@@ -2884,13 +3884,13 @@
         <v>108</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>192</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19">
       <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
@@ -2898,13 +3898,13 @@
         <v>110</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>193</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -2912,13 +3912,13 @@
         <v>112</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>194</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -2926,10 +3926,192 @@
         <v>114</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>244</v>
+        <v>195</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19">
+      <c r="A54" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19">
+      <c r="A55" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19">
+      <c r="A56" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19">
+      <c r="A57" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19">
+      <c r="A58" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19">
+      <c r="A59" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="38">
+      <c r="A60" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19">
+      <c r="A61" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19">
+      <c r="A62" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="38">
+      <c r="A63" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="57">
+      <c r="A64" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
